--- a/data/employment_1_page.xlsx
+++ b/data/employment_1_page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB821128-485A-44F2-9711-83FA1AB8DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF879F-EB53-DF49-8098-B2A53C4D583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="585" windowWidth="26745" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>what</t>
   </si>
@@ -48,12 +48,6 @@
     <t>body</t>
   </si>
   <si>
-    <t>Research Associate</t>
-  </si>
-  <si>
-    <t>Supervisor: Prof Judith Allen.</t>
-  </si>
-  <si>
     <t>2017-2021</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>Trinity College Dublin</t>
   </si>
   <si>
-    <t>Post-doctoral Researcher</t>
-  </si>
-  <si>
-    <t>Supervisor: Prof Kingston HG Mills.</t>
-  </si>
-  <si>
     <t>2013-2016</t>
   </si>
   <si>
@@ -96,30 +84,6 @@
     <t>School of Biochemistry and Immunology</t>
   </si>
   <si>
-    <t>Research Fellow</t>
-  </si>
-  <si>
-    <t>Supervisor: Prof Mark Little</t>
-  </si>
-  <si>
-    <t>Senior Research Fellow</t>
-  </si>
-  <si>
-    <t>School of Medicine</t>
-  </si>
-  <si>
-    <t>Honorary Research Fellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaboration on MRC programme grant (PI Judi Allen). </t>
-  </si>
-  <si>
-    <t>April 2021-present</t>
-  </si>
-  <si>
-    <t>Dec 2021-Present</t>
-  </si>
-  <si>
     <t>Lydia Becker Insitute</t>
   </si>
   <si>
@@ -129,57 +93,47 @@
     <t>Performed the teaching duties for a senior professor on sabbatical</t>
   </si>
   <si>
-    <t>Informatics Training Scheme (Wellcome Trust TPA)</t>
-  </si>
-  <si>
-    <t>Programming and Computational Approaches to Biology Modules</t>
-  </si>
-  <si>
     <t>Constituted 50% of tought compenent of MSc Bioinformatics and Systems Biology</t>
   </si>
   <si>
-    <t>PhD in Immunology</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Immune modulation by the helminth Parasite </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fasciola hepatica</t>
-    </r>
-  </si>
-  <si>
     <t>Supervisor: Kingston Mills</t>
   </si>
   <si>
-    <t>COVID-19 SFI-funded strategic partnership, investigating myeloid cell dysfunction in COVID-19. CO-PI of reseach Lab</t>
-  </si>
-  <si>
     <t>Laboratory management of Trinity Kidney Health Centre. Clinical data analysis and translational research.</t>
   </si>
   <si>
     <t>IP-protected project identifying novel helminth-derived proteins as therapeutics for inflammatory disease. Role of mast cells in the alternative activation of macrophages via IL-33. Circadian regulation of autoimmune disease</t>
   </si>
   <si>
-    <t>Lecturer (teaching relief post)</t>
-  </si>
-  <si>
-    <t>April 2021-December 2021</t>
+    <t>Research Fellow, Supervisor: Prof Mark Little</t>
+  </si>
+  <si>
+    <t>Research Associate, Supervisor: Prof Judith Allen.</t>
+  </si>
+  <si>
+    <t>Lecturer (teaching relief post), School of Biochemistry and Immunology</t>
+  </si>
+  <si>
+    <t>Post-doctoral Researcher, Supervisor: Prof Kingston HG Mills.</t>
+  </si>
+  <si>
+    <t>Informatics Training Scheme (Wellcome Trust TPA),Programming and Computational Approaches to Biology Modules</t>
+  </si>
+  <si>
+    <t>PhD in Immunology, Immune modulation by the helminth Parasite Fasciola hepatica</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>BA(Mod) in Natural Sciences, Major: Biochemisty with Immunology, Grade: 1:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +173,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,22 +491,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="117.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="117.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -577,15 +523,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -594,161 +540,122 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>2013</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12"/>
+      <c r="E10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/employment_1_page.xlsx
+++ b/data/employment_1_page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF879F-EB53-DF49-8098-B2A53C4D583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D7C9F-29C5-FA4D-893F-1A1CF8EB99D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="900" windowWidth="32360" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>2016-2017</t>
   </si>
   <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
     <t>2013-2016</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>BA(Mod) in Natural Sciences, Major: Biochemisty with Immunology, Grade: 1:1</t>
+  </si>
+  <si>
+    <t>Trinity</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,13 +525,13 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -542,38 +542,38 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -582,44 +582,44 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -628,32 +628,32 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2007</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E10"/>
     </row>
